--- a/Example.xlsx
+++ b/Example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -24,24 +24,6 @@
     <t>Transect</t>
   </si>
   <si>
-    <t>Matt.St</t>
-  </si>
-  <si>
-    <t>Mike.St</t>
-  </si>
-  <si>
-    <t>Joanne.St</t>
-  </si>
-  <si>
-    <t>David.St</t>
-  </si>
-  <si>
-    <t>Seaton.St</t>
-  </si>
-  <si>
-    <t>Sarah.St</t>
-  </si>
-  <si>
     <t>Matt.End</t>
   </si>
   <si>
@@ -58,6 +40,27 @@
   </si>
   <si>
     <t>Sarah.End</t>
+  </si>
+  <si>
+    <t>Matt.Start</t>
+  </si>
+  <si>
+    <t>Mike.Start</t>
+  </si>
+  <si>
+    <t>Joanne.Start</t>
+  </si>
+  <si>
+    <t>David.Start</t>
+  </si>
+  <si>
+    <t>Seaton.Start</t>
+  </si>
+  <si>
+    <t>Sarah.Start</t>
+  </si>
+  <si>
+    <t>Fun</t>
   </si>
 </sst>
 </file>
@@ -405,25 +408,25 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -434,40 +437,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
       <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
       <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
       <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
         <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -756,8 +759,8 @@
       <c r="A17" s="2">
         <v>42125</v>
       </c>
-      <c r="B17">
-        <v>34</v>
+      <c r="B17" t="s">
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>0.54513888888888895</v>
